--- a/biology/Zoologie/Hyracodontidae/Hyracodontidae.xlsx
+++ b/biology/Zoologie/Hyracodontidae/Hyracodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hyracodontidae (hyraconodontidés en français) sont une famille de mammifères fossiles appartenant dans la nomenclature taxonomique classique à l'ordre des périssodactyles[1], [2]. Ils sont proches des rhinocéros mais dépourvus de cornes et avec de longues pattes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hyracodontidae (hyraconodontidés en français) sont une famille de mammifères fossiles appartenant dans la nomenclature taxonomique classique à l'ordre des périssodactyles, . Ils sont proches des rhinocéros mais dépourvus de cornes et avec de longues pattes.
 Les Hyracodontidae ont vécu dans les steppes et les forêts tropicales d'Amérique du Nord et d'Asie au cours du Cénozoïque il y a environ entre −49 et −26 Ma (millions d'années) du début de l'Éocène jusqu'au milieu de l'Oligocène.
-Le taxon Indricotheriinae, contenant le célèbre Paraceratherium, est désormais considéré comme une famille totalement séparés des hyracodontidés, formant donc les Paraceratheriidae[3],[4].
+Le taxon Indricotheriinae, contenant le célèbre Paraceratherium, est désormais considéré comme une famille totalement séparés des hyracodontidés, formant donc les Paraceratheriidae,.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De « odonte » du grec ancien ὀδούς, odoús, « dent » et du préfixe « Hyrax » faisant référence aux hyracoïdes actuels comme les damans : « à dents de damans ».
 </t>
